--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1522307.860006531</v>
+        <v>1518151.673698563</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10646249.55501306</v>
+        <v>10646249.55501305</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>412.2877386950441</v>
+        <v>60.90289325675695</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885203</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.3157839734243</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>161.2624848727064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906503</v>
+        <v>96.65565115906496</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833751</v>
+        <v>33.85559031833728</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041457</v>
+        <v>141.7193093041456</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>105.9789732507128</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.245260737819</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>14.96483578851024</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H5" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.935408774453</v>
+        <v>72.98732700299406</v>
       </c>
       <c r="T5" t="n">
-        <v>168.8019130995385</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555391</v>
+        <v>19.80516901555394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>175.9240726513557</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>130.2184468795535</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>190.0851788922612</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5250233818693</v>
+        <v>11.52502338186935</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>298.0694320424302</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>207.2993472833158</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>40.8112712728099</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>63.1628130171261</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2800,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>245.8796921214428</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038638</v>
       </c>
     </row>
     <row r="32">
@@ -3091,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>55.52079624060555</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="35">
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>35.88641949135548</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3714,19 +3714,19 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>90.14863908058098</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>185.0663491738889</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>26.05480806223585</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>974.4300896618174</v>
+        <v>1279.054603647807</v>
       </c>
       <c r="C2" t="n">
-        <v>974.4300896618174</v>
+        <v>910.0920867073958</v>
       </c>
       <c r="D2" t="n">
-        <v>974.4300896618174</v>
+        <v>910.0920867073958</v>
       </c>
       <c r="E2" t="n">
-        <v>974.4300896618174</v>
+        <v>524.3038341091515</v>
       </c>
       <c r="F2" t="n">
-        <v>563.4441848722098</v>
+        <v>113.3179293195439</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640844</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I2" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073753</v>
+        <v>293.3053724073763</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178222</v>
+        <v>776.0043429178248</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136012</v>
+        <v>1013.627124136017</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.697690693613</v>
+        <v>1309.69769069362</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929196</v>
+        <v>1615.172796929205</v>
       </c>
       <c r="O2" t="n">
-        <v>1968.860256443063</v>
+        <v>1890.28901624584</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.745304821932</v>
+        <v>2409.174064624711</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2550.866182466514</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="T2" t="n">
-        <v>2448.259651016315</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="U2" t="n">
-        <v>2194.618789397902</v>
+        <v>2336.351904522572</v>
       </c>
       <c r="V2" t="n">
-        <v>1863.555902054331</v>
+        <v>2005.289017179001</v>
       </c>
       <c r="W2" t="n">
-        <v>1510.787246784217</v>
+        <v>1652.520361908887</v>
       </c>
       <c r="X2" t="n">
-        <v>1137.321488523137</v>
+        <v>1279.054603647807</v>
       </c>
       <c r="Y2" t="n">
-        <v>974.4300896618174</v>
+        <v>1279.054603647807</v>
       </c>
     </row>
     <row r="3">
@@ -4385,64 +4385,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093635</v>
+        <v>949.8902083093631</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282365</v>
+        <v>775.4371790282361</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669854</v>
+        <v>626.5027693669849</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615298</v>
+        <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884149</v>
+        <v>320.7307563884144</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686809</v>
+        <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093843</v>
+        <v>85.9974213009382</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J3" t="n">
-        <v>77.11538214995008</v>
+        <v>201.9455071369554</v>
       </c>
       <c r="K3" t="n">
-        <v>198.5384744202281</v>
+        <v>585.1891840496874</v>
       </c>
       <c r="L3" t="n">
-        <v>775.2612895234822</v>
+        <v>1161.911999152943</v>
       </c>
       <c r="M3" t="n">
-        <v>1416.284499143376</v>
+        <v>1425.851530648431</v>
       </c>
       <c r="N3" t="n">
-        <v>1905.604188315629</v>
+        <v>1711.185401081764</v>
       </c>
       <c r="O3" t="n">
-        <v>2144.409140067087</v>
+        <v>2339.914048917185</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020796</v>
+        <v>2524.714615879285</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140987</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
       </c>
       <c r="T3" t="n">
-        <v>2251.223226128892</v>
+        <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259863</v>
+        <v>2023.106809259862</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4454,7 +4454,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329432</v>
+        <v>1118.105545329431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.79985532281972</v>
+        <v>665.6557187433658</v>
       </c>
       <c r="C4" t="n">
-        <v>51.79985532281972</v>
+        <v>496.7195358154589</v>
       </c>
       <c r="D4" t="n">
-        <v>51.79985532281972</v>
+        <v>346.6028964031232</v>
       </c>
       <c r="E4" t="n">
-        <v>51.79985532281972</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F4" t="n">
         <v>51.79985532281972</v>
@@ -4488,52 +4488,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018376</v>
+        <v>54.03452733018415</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159864</v>
+        <v>187.5436166159875</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341299</v>
+        <v>413.9157199341317</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666695</v>
+        <v>662.9824862666723</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092698</v>
+        <v>911.5616180092733</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357424</v>
+        <v>1125.148384357428</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993468</v>
+        <v>1284.388078993472</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361118</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="R4" t="n">
-        <v>1204.152841431105</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="S4" t="n">
-        <v>1001.680594591406</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="T4" t="n">
-        <v>777.2694353668443</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="U4" t="n">
-        <v>488.1328083589463</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>233.4483201530594</v>
+        <v>1311.202309361123</v>
       </c>
       <c r="W4" t="n">
-        <v>233.4483201530594</v>
+        <v>1296.086313615153</v>
       </c>
       <c r="X4" t="n">
-        <v>233.4483201530594</v>
+        <v>1068.096762717136</v>
       </c>
       <c r="Y4" t="n">
-        <v>233.4483201530594</v>
+        <v>847.3041835736055</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2295.308602631904</v>
+        <v>428.6524924382377</v>
       </c>
       <c r="C5" t="n">
-        <v>1926.346085691492</v>
+        <v>428.6524924382377</v>
       </c>
       <c r="D5" t="n">
-        <v>1568.080387084741</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="E5" t="n">
-        <v>1182.292134486497</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F5" t="n">
-        <v>771.3062296968895</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G5" t="n">
-        <v>355.6243878970215</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H5" t="n">
         <v>51.79985532281972</v>
@@ -4567,13 +4567,13 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104781</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135512</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477385</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.815585560731</v>
+        <v>2516.268193410689</v>
       </c>
       <c r="T5" t="n">
-        <v>2295.308602631904</v>
+        <v>2516.268193410689</v>
       </c>
       <c r="U5" t="n">
-        <v>2295.308602631904</v>
+        <v>2262.688965352936</v>
       </c>
       <c r="V5" t="n">
-        <v>2295.308602631904</v>
+        <v>1931.626078009365</v>
       </c>
       <c r="W5" t="n">
-        <v>2295.308602631904</v>
+        <v>1578.857422739251</v>
       </c>
       <c r="X5" t="n">
-        <v>2295.308602631904</v>
+        <v>1205.391664478171</v>
       </c>
       <c r="Y5" t="n">
-        <v>2295.308602631904</v>
+        <v>815.2523325023594</v>
       </c>
     </row>
     <row r="6">
@@ -4631,43 +4631,43 @@
         <v>607.9171255411325</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6796705356769</v>
+        <v>448.679670535677</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1451125625619</v>
+        <v>302.145112562562</v>
       </c>
       <c r="G6" t="n">
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065196</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>115.2852578226162</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K6" t="n">
-        <v>563.7673318682818</v>
+        <v>426.7768722128335</v>
       </c>
       <c r="L6" t="n">
-        <v>861.0792809845966</v>
+        <v>724.0888213291482</v>
       </c>
       <c r="M6" t="n">
-        <v>1227.385170476922</v>
+        <v>1365.112030949042</v>
       </c>
       <c r="N6" t="n">
-        <v>1617.794731802665</v>
+        <v>1755.521592274784</v>
       </c>
       <c r="O6" t="n">
-        <v>2195.735752851538</v>
+        <v>2090.450272990315</v>
       </c>
       <c r="P6" t="n">
-        <v>2445.212480716556</v>
+        <v>2339.927000855334</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.061870084021</v>
+        <v>2536.977948259489</v>
       </c>
       <c r="R6" t="n">
         <v>2562.061870084021</v>
@@ -4701,49 +4701,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>476.3987983832654</v>
+        <v>183.3336400496414</v>
       </c>
       <c r="C7" t="n">
-        <v>307.4626154553586</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="D7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="E7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080553</v>
+        <v>77.98108068080549</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121973</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225445</v>
+        <v>527.5702436225444</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317424</v>
+        <v>829.7308018317422</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750634</v>
+        <v>1130.141273750633</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.807384634811</v>
+        <v>1591.80738463481</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
@@ -4758,19 +4758,19 @@
         <v>1646.983670153878</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153878</v>
+        <v>1357.865893164276</v>
       </c>
       <c r="V7" t="n">
-        <v>1392.299181947991</v>
+        <v>1103.181404958389</v>
       </c>
       <c r="W7" t="n">
-        <v>1102.882011911031</v>
+        <v>813.7642349214286</v>
       </c>
       <c r="X7" t="n">
-        <v>874.8924610130134</v>
+        <v>585.7746840234113</v>
       </c>
       <c r="Y7" t="n">
-        <v>654.0998818694833</v>
+        <v>364.9821048798811</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1439.787835839973</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="C8" t="n">
-        <v>1247.782604635669</v>
+        <v>1218.481149076886</v>
       </c>
       <c r="D8" t="n">
-        <v>1247.782604635669</v>
+        <v>860.2154504701355</v>
       </c>
       <c r="E8" t="n">
-        <v>1247.782604635669</v>
+        <v>474.4271978718913</v>
       </c>
       <c r="F8" t="n">
-        <v>836.796699846061</v>
+        <v>63.44129308228371</v>
       </c>
       <c r="G8" t="n">
-        <v>421.1148580461929</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H8" t="n">
-        <v>117.2903254719912</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I8" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104791</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135523</v>
+        <v>447.8319447135507</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477401</v>
+        <v>804.6133007477381</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187504</v>
+        <v>1233.270741187502</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539973</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.818195082063</v>
+        <v>2075.818195082061</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645558</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
         <v>2568.493631507462</v>
@@ -4840,16 +4840,16 @@
         <v>2589.992766140986</v>
       </c>
       <c r="V8" t="n">
-        <v>2589.992766140986</v>
+        <v>2258.929878797415</v>
       </c>
       <c r="W8" t="n">
-        <v>2589.992766140986</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="X8" t="n">
-        <v>2216.527007879906</v>
+        <v>1906.161223527301</v>
       </c>
       <c r="Y8" t="n">
-        <v>1826.387675904095</v>
+        <v>1605.080989141008</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>688.5974568552863</v>
+        <v>598.8031573431335</v>
       </c>
       <c r="L9" t="n">
-        <v>985.909405971601</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M9" t="n">
-        <v>1352.215295463926</v>
+        <v>1262.420995951774</v>
       </c>
       <c r="N9" t="n">
-        <v>1742.624856789669</v>
+        <v>1652.830557277516</v>
       </c>
       <c r="O9" t="n">
-        <v>2077.5535375052</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
-        <v>2327.030265370218</v>
+        <v>2237.235965858066</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>473.9697003482517</v>
+        <v>517.7426251609727</v>
       </c>
       <c r="C10" t="n">
-        <v>473.9697003482517</v>
+        <v>348.8064422330658</v>
       </c>
       <c r="D10" t="n">
-        <v>473.9697003482517</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="E10" t="n">
-        <v>473.9697003482517</v>
+        <v>198.6898028207301</v>
       </c>
       <c r="F10" t="n">
-        <v>473.9697003482517</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="G10" t="n">
-        <v>305.9935116101411</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="H10" t="n">
-        <v>157.3459760430229</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
@@ -4986,28 +4986,28 @@
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1544.862307910904</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S10" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="T10" t="n">
-        <v>1348.412641916872</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="U10" t="n">
-        <v>1059.294864927271</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>804.6103767213839</v>
+        <v>1437.590390069721</v>
       </c>
       <c r="W10" t="n">
-        <v>515.1932066844233</v>
+        <v>1148.17322003276</v>
       </c>
       <c r="X10" t="n">
-        <v>473.9697003482517</v>
+        <v>920.1836691347426</v>
       </c>
       <c r="Y10" t="n">
-        <v>473.9697003482517</v>
+        <v>699.3910899912124</v>
       </c>
     </row>
     <row r="11">
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021785</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756785</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996072</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5293,7 +5293,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714574</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>631.7012443408906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5530,10 +5530,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5743,37 +5743,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5834,25 +5834,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1963.765362972544</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>2438.670847218162</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>2337.686731866304</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>2337.686731866304</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,16 +5980,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L24" t="n">
-        <v>577.3880777468471</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,34 +6214,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>251.5626541092265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>746.8882603249853</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M27" t="n">
-        <v>1344.266747951537</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6463,10 +6463,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6654,19 +6654,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6691,16 +6691,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6739,10 +6739,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>2715.159942084666</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3312.538429711218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3007.624207651098</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>2838.688024723192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>2688.571385310856</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>2540.658291728463</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>2393.768344230552</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866304</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>3189.272672481338</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6928,43 +6928,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>1052.829365488567</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>883.8931825606599</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>733.7765431483241</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>585.863449565931</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>438.9735020680206</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>271.7774027829005</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>130.0655716250986</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>2273.199413378161</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V37" t="n">
-        <v>2018.514925172274</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W37" t="n">
-        <v>1729.097755135313</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X37" t="n">
-        <v>1501.108204237296</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y37" t="n">
-        <v>1280.315625093766</v>
+        <v>1234.477830318806</v>
       </c>
     </row>
     <row r="38">
@@ -7156,25 +7156,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7183,13 +7183,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7253,22 +7253,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1652.717886400351</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G40" t="n">
         <v>317.6151975578602</v>
@@ -7362,22 +7362,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="U40" t="n">
-        <v>1977.461080510508</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V40" t="n">
-        <v>1977.461080510508</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W40" t="n">
-        <v>1688.043910473548</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.108204237296</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y40" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,7 +7408,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
         <v>378.1925803111715</v>
@@ -7502,7 +7502,7 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2117.354959541324</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7651,16 +7651,16 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D46" t="n">
-        <v>261.8464821474262</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E46" t="n">
-        <v>261.8464821474262</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F46" t="n">
-        <v>261.8464821474262</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
   </sheetData>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>79.36488908811498</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>39.84308739671548</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159803</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>380.8926041660687</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>206.0462815544665</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>12.59758182665658</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>277.4922425530995</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>245.4670104377189</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>81.01167478453539</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906576</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>173.7639243740404</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>119.3759750973111</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>20.1843750390658</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>62.35543909864867</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>116.6691671648112</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>136.2749052347519</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>116.6691671648112</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,19 +24894,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>40.30478226780133</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>110.0033420516633</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="35">
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>45.37941682721005</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>127.2568112467073</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>139.469330230033</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,10 +26073,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>957321.6646846295</v>
+        <v>957321.6646846292</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>934315.3989887759</v>
+        <v>934315.398988776</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363681</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.106165177</v>
+        <v>513151.1061651765</v>
       </c>
       <c r="C2" t="n">
-        <v>513151.1061651772</v>
+        <v>513151.1061651771</v>
       </c>
       <c r="D2" t="n">
         <v>513151.1061651772</v>
@@ -26325,37 +26325,37 @@
         <v>504466.6248062538</v>
       </c>
       <c r="F2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="G2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="I2" t="n">
-        <v>504466.6248062539</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="J2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062537</v>
       </c>
       <c r="K2" t="n">
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="M2" t="n">
         <v>504466.6248062537</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>504466.6248062537</v>
+      </c>
+      <c r="O2" t="n">
+        <v>504466.6248062536</v>
+      </c>
+      <c r="P2" t="n">
         <v>504466.6248062538</v>
-      </c>
-      <c r="N2" t="n">
-        <v>504466.6248062538</v>
-      </c>
-      <c r="O2" t="n">
-        <v>504466.6248062537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>504466.6248062537</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753958</v>
+        <v>939682.9358753986</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898954</v>
+        <v>172764.3597898923</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457507</v>
+        <v>500888.8677457512</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.0168260482</v>
+        <v>169414.016826048</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151603</v>
+        <v>159785.8388151599</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.7547252479</v>
+        <v>129066.754725248</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
@@ -26435,7 +26435,7 @@
         <v>6287.480531695052</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
         <v>6287.480531695051</v>
@@ -26444,19 +26444,19 @@
         <v>6287.480531695051</v>
       </c>
       <c r="K4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="M4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695052</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.07489699085</v>
+        <v>89345.0748969909</v>
       </c>
       <c r="C5" t="n">
         <v>93481.0893615096</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-675662.7434223699</v>
+        <v>-675662.7434223728</v>
       </c>
       <c r="C6" t="n">
-        <v>117838.9022885243</v>
+        <v>117838.9022885272</v>
       </c>
       <c r="D6" t="n">
-        <v>290603.26207842</v>
+        <v>290603.2620784196</v>
       </c>
       <c r="E6" t="n">
-        <v>-103832.253295099</v>
+        <v>-104179.6325494565</v>
       </c>
       <c r="F6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962948</v>
       </c>
       <c r="G6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962946</v>
       </c>
       <c r="H6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962945</v>
       </c>
       <c r="I6" t="n">
-        <v>397056.6144506517</v>
+        <v>396709.2351962945</v>
       </c>
       <c r="J6" t="n">
-        <v>227642.5976246034</v>
+        <v>227295.2183702466</v>
       </c>
       <c r="K6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962945</v>
       </c>
       <c r="L6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962945</v>
       </c>
       <c r="M6" t="n">
-        <v>266172.1575464164</v>
+        <v>265824.7782920593</v>
       </c>
       <c r="N6" t="n">
-        <v>397056.6144506516</v>
+        <v>396709.2351962946</v>
       </c>
       <c r="O6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962945</v>
       </c>
       <c r="P6" t="n">
-        <v>397056.6144506515</v>
+        <v>396709.2351962947</v>
       </c>
     </row>
   </sheetData>
@@ -26737,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498448</v>
+        <v>939.7063906498445</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976077</v>
+        <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522371</v>
+        <v>189.7254341522337</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918293</v>
+        <v>428.2691096918297</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.210096564402</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352465</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644019</v>
+        <v>525.2100965644022</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>351.3848454382872</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495114</v>
+        <v>308.5974454495113</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>94.24014755885155</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>224.9754537833471</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -27557,7 +27557,7 @@
         <v>150.2028876639205</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994864</v>
+        <v>114.7793764994862</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>10.50448680125723</v>
+        <v>116.4834600519698</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713015</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>271.5581625480808</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767967</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>49.94808177145897</v>
       </c>
       <c r="T5" t="n">
-        <v>37.7569928462222</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.907907530581639</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>37.02837421907435</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27794,7 +27794,7 @@
         <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>175.1877128787464</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27912,16 +27912,16 @@
         <v>251.0434357771752</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>88.16850661362344</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
         <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>44.83829604051223</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>184.8983841162272</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090883</v>
+        <v>3.014998820090895</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625576</v>
+        <v>30.87735666625589</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115539</v>
+        <v>116.2357420115544</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066888</v>
+        <v>255.8942561066899</v>
       </c>
       <c r="K2" t="n">
-        <v>383.519156161136</v>
+        <v>383.5191561611376</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014924</v>
+        <v>475.7894263014944</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682837</v>
+        <v>529.4074115682859</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658669</v>
+        <v>537.9737769658691</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485882</v>
+        <v>507.9933824485902</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775944</v>
+        <v>433.5605990775962</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330896</v>
+        <v>325.5859538330909</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325341</v>
+        <v>189.3909196325349</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282107</v>
+        <v>68.70428561282135</v>
       </c>
       <c r="T2" t="n">
-        <v>13.19815733494785</v>
+        <v>13.1981573349479</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072706</v>
+        <v>0.2411999056072716</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.6131665856741</v>
+        <v>1.613166585674106</v>
       </c>
       <c r="H3" t="n">
-        <v>15.57979307743144</v>
+        <v>15.5797930774315</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307757</v>
+        <v>55.54104253307779</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859903</v>
+        <v>152.4088658859909</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126155</v>
+        <v>260.491027126156</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605101</v>
+        <v>350.2623325605116</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911962</v>
+        <v>408.7396212911979</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240721</v>
+        <v>419.5577428240738</v>
       </c>
       <c r="O3" t="n">
-        <v>383.8133674257144</v>
+        <v>383.813367425716</v>
       </c>
       <c r="P3" t="n">
-        <v>308.0440649433287</v>
+        <v>308.04406494333</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028904</v>
+        <v>205.9192996028912</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526428</v>
+        <v>100.1578341526432</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969214</v>
+        <v>29.96386179969226</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993408</v>
+        <v>6.502193386993435</v>
       </c>
       <c r="U3" t="n">
-        <v>0.106129380636454</v>
+        <v>0.1061293806364544</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651424</v>
+        <v>1.352424675651429</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351903</v>
+        <v>12.02428484351908</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777192</v>
+        <v>40.67109842777208</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855564</v>
+        <v>95.61642456855604</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711381</v>
+        <v>157.1271577711387</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600308</v>
+        <v>201.0686649600316</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932499</v>
+        <v>211.9987152932508</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840039</v>
+        <v>206.9578596840047</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184395</v>
+        <v>191.1590805184402</v>
       </c>
       <c r="P4" t="n">
-        <v>163.5696171351503</v>
+        <v>163.569617135151</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311388</v>
+        <v>113.2471244311392</v>
       </c>
       <c r="R4" t="n">
-        <v>60.80993132519945</v>
+        <v>60.8099313251997</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567071</v>
+        <v>23.56907366567081</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965173</v>
+        <v>5.778541795965196</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189592</v>
+        <v>0.07376861867189623</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265705</v>
+        <v>3.777714133265703</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730741</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182604</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793978</v>
+        <v>480.5394041793976</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853282</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027922</v>
+        <v>663.3335468027919</v>
       </c>
       <c r="N5" t="n">
-        <v>674.0669770839335</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712725</v>
+        <v>636.5023321712723</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062753</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086972</v>
+        <v>407.950627108697</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179233</v>
+        <v>86.0846608117923</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837063</v>
+        <v>16.53694361837062</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612563</v>
+        <v>0.3022171306612562</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360044</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586116</v>
+        <v>69.59146383586113</v>
       </c>
       <c r="J6" t="n">
-        <v>190.9642958583803</v>
+        <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.3883979675032</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973639</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041653</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.694804331558</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.9080431470013</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274806</v>
+        <v>385.9711022274805</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157838</v>
+        <v>258.0114603157837</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284991</v>
+        <v>37.54392985284989</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841577</v>
+        <v>8.147077103841573</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1329773194315819</v>
+        <v>0.1329773194315818</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,43 +31442,43 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425717</v>
+        <v>50.95981541425715</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525412</v>
+        <v>196.8761913525411</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309437</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979552</v>
+        <v>265.6288080979551</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509647</v>
+        <v>259.3127487509646</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561277</v>
+        <v>239.5172944561276</v>
       </c>
       <c r="P7" t="n">
-        <v>204.9484232984513</v>
+        <v>204.9484232984512</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.8956649881266</v>
+        <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.1932427566251</v>
+        <v>76.19324275662507</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288118</v>
+        <v>29.53142870288116</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843064</v>
+        <v>7.240360714843061</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523074</v>
+        <v>0.0924301367852307</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>437.8531046913755</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,13 +32074,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>138.5955196772184</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,7 +32101,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32311,7 +32311,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,16 +32566,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,22 +32785,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>379.8551982710416</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>282.8216163968503</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32809,7 +32809,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>146.0225991093084</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>467.1465236515248</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,19 +33505,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>538.1718564803235</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,19 +33733,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>616.5397119226058</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33754,10 +33754,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,13 +33973,13 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33988,10 +33988,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520763</v>
+        <v>243.9449667520774</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873202</v>
+        <v>487.5747176873218</v>
       </c>
       <c r="L2" t="n">
-        <v>240.0230113315052</v>
+        <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.061178341011</v>
+        <v>299.0611783410131</v>
       </c>
       <c r="N2" t="n">
-        <v>308.560713369276</v>
+        <v>308.5607133692782</v>
       </c>
       <c r="O2" t="n">
-        <v>357.2600601150165</v>
+        <v>277.8951710269035</v>
       </c>
       <c r="P2" t="n">
-        <v>524.1263114938075</v>
+        <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586401</v>
+        <v>143.1233513553569</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>39.52180169138521</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>25.57123921932359</v>
+        <v>151.662274559733</v>
       </c>
       <c r="K3" t="n">
-        <v>122.649588151796</v>
+        <v>387.1148251643756</v>
       </c>
       <c r="L3" t="n">
-        <v>582.5482980840951</v>
+        <v>582.5482980840966</v>
       </c>
       <c r="M3" t="n">
-        <v>647.4981915352465</v>
+        <v>266.6055873691795</v>
       </c>
       <c r="N3" t="n">
-        <v>494.2623122952053</v>
+        <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812699</v>
+        <v>635.0794422580011</v>
       </c>
       <c r="P3" t="n">
-        <v>174.0696575289985</v>
+        <v>186.6672393556563</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527179</v>
+        <v>65.9375255168697</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451882869</v>
+        <v>2.257244451883267</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452552</v>
+        <v>134.8576659452559</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203469</v>
+        <v>228.6586902203478</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550905</v>
+        <v>251.5825922550914</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632325</v>
+        <v>251.0900320632333</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324792</v>
+        <v>215.7442084324799</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000438</v>
+        <v>160.8481764000445</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944437</v>
+        <v>27.08508117944484</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915741</v>
+        <v>139.582860391574</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344173</v>
+        <v>260.4495531344171</v>
       </c>
       <c r="L5" t="n">
-        <v>360.385208115341</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755195</v>
+        <v>432.9873135755192</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873425</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495858</v>
+        <v>406.4041207495856</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510058</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342477</v>
+        <v>185.6449372342475</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961991</v>
+        <v>21.71629760961983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>64.1266691917136</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K6" t="n">
-        <v>453.0121960057228</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174897</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>370.005948982147</v>
+        <v>647.4981915352464</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482247</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>583.7788091402757</v>
+        <v>338.3117987025566</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131504</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>118.0296862297623</v>
+        <v>199.0413610142976</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>25.33729477225502</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978365</v>
+        <v>26.4456821797836</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912598</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597958</v>
+        <v>305.2126850597957</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301933</v>
+        <v>303.4449211301932</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701674</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633448</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643217</v>
+        <v>55.73362173643211</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>453.0121960057227</v>
+        <v>362.3108833671845</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35272,7 +35272,7 @@
         <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>237.4056613270733</v>
+        <v>328.1069739656113</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>303.8786972770453</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35655,7 +35655,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35667,7 +35667,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,13 +35722,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0.7540807028594299</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,16 +36214,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>242.0137592966826</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>140.6875824748321</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36457,7 +36457,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>8.181160134949373</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>328.5921438716506</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36831,7 +36831,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36852,7 +36852,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>406.8301443969902</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>477.9853321427316</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37402,10 +37402,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37554,7 +37554,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37621,13 +37621,13 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37636,10 +37636,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_9_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1518151.673698563</v>
+        <v>1519912.204001348</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10646249.55501305</v>
+        <v>10646249.55501306</v>
       </c>
     </row>
     <row r="11">
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>60.90289325675695</v>
+        <v>412.2877386950441</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>226.4993585488832</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>140.315783973424</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>209.8976922291835</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1044530022292</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -819,16 +819,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>189.7251795916906</v>
       </c>
       <c r="W4" t="n">
-        <v>14.96483578851024</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>237.6623564394675</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>72.98732700299406</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555394</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>130.2184468795535</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>164.8868441430956</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>313.4409126298451</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.52502338186935</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>298.0694320424302</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>95.73666324888958</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>207.2993472833158</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>42.54416032354752</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>83.06560892428257</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.019807611472022</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>28.75188085812005</v>
+        <v>31.26260713376563</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515512</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>107.3363007608863</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>172.1249649038638</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>63.16281301712937</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>35.88641949135548</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>90.14863908058098</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>18.70843787977262</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1279.054603647807</v>
+        <v>1862.776021816666</v>
       </c>
       <c r="C2" t="n">
-        <v>910.0920867073958</v>
+        <v>1493.813504876255</v>
       </c>
       <c r="D2" t="n">
-        <v>910.0920867073958</v>
+        <v>1493.813504876255</v>
       </c>
       <c r="E2" t="n">
-        <v>524.3038341091515</v>
+        <v>1108.02525227801</v>
       </c>
       <c r="F2" t="n">
-        <v>113.3179293195439</v>
+        <v>697.0393474884029</v>
       </c>
       <c r="G2" t="n">
-        <v>51.79985532281972</v>
+        <v>280.5870861802775</v>
       </c>
       <c r="H2" t="n">
         <v>51.79985532281972</v>
@@ -4330,52 +4330,52 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J2" t="n">
-        <v>293.3053724073763</v>
+        <v>125.8997233870233</v>
       </c>
       <c r="K2" t="n">
-        <v>776.0043429178248</v>
+        <v>287.6947354520187</v>
       </c>
       <c r="L2" t="n">
-        <v>1013.627124136017</v>
+        <v>525.3175166702108</v>
       </c>
       <c r="M2" t="n">
-        <v>1309.69769069362</v>
+        <v>842.528986753226</v>
       </c>
       <c r="N2" t="n">
-        <v>1615.172796929205</v>
+        <v>1483.55219637312</v>
       </c>
       <c r="O2" t="n">
-        <v>1890.28901624584</v>
+        <v>1758.668415689755</v>
       </c>
       <c r="P2" t="n">
-        <v>2409.174064624711</v>
+        <v>2277.553464068626</v>
       </c>
       <c r="Q2" t="n">
-        <v>2550.866182466514</v>
+        <v>2589.992766140986</v>
       </c>
       <c r="R2" t="n">
         <v>2589.992766140986</v>
       </c>
       <c r="S2" t="n">
-        <v>2589.992766140986</v>
+        <v>2448.259651016315</v>
       </c>
       <c r="T2" t="n">
-        <v>2589.992766140986</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="U2" t="n">
-        <v>2336.351904522572</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="V2" t="n">
-        <v>2005.289017179001</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="W2" t="n">
-        <v>1652.520361908887</v>
+        <v>2236.241780077746</v>
       </c>
       <c r="X2" t="n">
-        <v>1279.054603647807</v>
+        <v>1862.776021816666</v>
       </c>
       <c r="Y2" t="n">
-        <v>1279.054603647807</v>
+        <v>1862.776021816666</v>
       </c>
     </row>
     <row r="3">
@@ -4397,13 +4397,13 @@
         <v>467.2653143615294</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884145</v>
       </c>
       <c r="G3" t="n">
         <v>183.6293921686806</v>
       </c>
       <c r="H3" t="n">
-        <v>85.9974213009382</v>
+        <v>85.99742130093821</v>
       </c>
       <c r="I3" t="n">
         <v>51.79985532281972</v>
@@ -4424,10 +4424,10 @@
         <v>1711.185401081764</v>
       </c>
       <c r="O3" t="n">
-        <v>2339.914048917185</v>
+        <v>1949.990352833222</v>
       </c>
       <c r="P3" t="n">
-        <v>2524.714615879285</v>
+        <v>2437.59745474047</v>
       </c>
       <c r="Q3" t="n">
         <v>2589.992766140986</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>665.6557187433658</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="C4" t="n">
-        <v>496.7195358154589</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="D4" t="n">
-        <v>346.6028964031232</v>
+        <v>199.7129489052128</v>
       </c>
       <c r="E4" t="n">
-        <v>198.6898028207301</v>
+        <v>51.79985532281972</v>
       </c>
       <c r="F4" t="n">
         <v>51.79985532281972</v>
@@ -4488,7 +4488,7 @@
         <v>51.79985532281972</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018416</v>
       </c>
       <c r="K4" t="n">
         <v>187.5436166159875</v>
@@ -4524,16 +4524,16 @@
         <v>1311.202309361123</v>
       </c>
       <c r="V4" t="n">
-        <v>1311.202309361123</v>
+        <v>1119.560713813961</v>
       </c>
       <c r="W4" t="n">
-        <v>1296.086313615153</v>
+        <v>830.143543777</v>
       </c>
       <c r="X4" t="n">
-        <v>1068.096762717136</v>
+        <v>602.1539928789826</v>
       </c>
       <c r="Y4" t="n">
-        <v>847.3041835736055</v>
+        <v>381.3614137354525</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>428.6524924382377</v>
+        <v>768.3392165640912</v>
       </c>
       <c r="C5" t="n">
-        <v>428.6524924382377</v>
+        <v>768.3392165640912</v>
       </c>
       <c r="D5" t="n">
-        <v>70.38679383148718</v>
+        <v>768.3392165640912</v>
       </c>
       <c r="E5" t="n">
-        <v>70.38679383148718</v>
+        <v>768.3392165640912</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228371</v>
+        <v>357.3533117744836</v>
       </c>
       <c r="G5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>51.79985532281972</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.986887110478</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135507</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477383</v>
       </c>
       <c r="M5" t="n">
         <v>1233.270741187502</v>
@@ -4582,10 +4582,10 @@
         <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.818195082061</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645557</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
         <v>2568.493631507462</v>
@@ -4594,25 +4594,25 @@
         <v>2589.992766140986</v>
       </c>
       <c r="S5" t="n">
-        <v>2516.268193410689</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="T5" t="n">
-        <v>2516.268193410689</v>
+        <v>2465.815585560731</v>
       </c>
       <c r="U5" t="n">
-        <v>2262.688965352936</v>
+        <v>2212.236357502978</v>
       </c>
       <c r="V5" t="n">
-        <v>1931.626078009365</v>
+        <v>1881.173470159407</v>
       </c>
       <c r="W5" t="n">
-        <v>1578.857422739251</v>
+        <v>1528.404814889293</v>
       </c>
       <c r="X5" t="n">
-        <v>1205.391664478171</v>
+        <v>1154.939056628213</v>
       </c>
       <c r="Y5" t="n">
-        <v>815.2523325023594</v>
+        <v>1154.939056628213</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065199</v>
+        <v>71.80507655065198</v>
       </c>
       <c r="I6" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096209</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>426.7768722128335</v>
+        <v>563.7673318682816</v>
       </c>
       <c r="L6" t="n">
-        <v>724.0888213291482</v>
+        <v>861.0792809845964</v>
       </c>
       <c r="M6" t="n">
-        <v>1365.112030949042</v>
+        <v>1227.385170476922</v>
       </c>
       <c r="N6" t="n">
-        <v>1755.521592274784</v>
+        <v>1617.794731802664</v>
       </c>
       <c r="O6" t="n">
-        <v>2090.450272990315</v>
+        <v>1952.723412518195</v>
       </c>
       <c r="P6" t="n">
-        <v>2339.927000855334</v>
+        <v>2212.152044033533</v>
       </c>
       <c r="Q6" t="n">
         <v>2536.977948259489</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3336400496414</v>
+        <v>456.1101510224768</v>
       </c>
       <c r="C7" t="n">
-        <v>51.79985532281972</v>
+        <v>456.1101510224768</v>
       </c>
       <c r="D7" t="n">
-        <v>51.79985532281972</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="E7" t="n">
-        <v>51.79985532281972</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="F7" t="n">
-        <v>51.79985532281972</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="G7" t="n">
-        <v>51.79985532281972</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H7" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I7" t="n">
         <v>51.79985532281972</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080549</v>
+        <v>77.9810806808055</v>
       </c>
       <c r="K7" t="n">
         <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225444</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317422</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153878</v>
+        <v>1181.860274095564</v>
       </c>
       <c r="U7" t="n">
-        <v>1357.865893164276</v>
+        <v>1181.860274095564</v>
       </c>
       <c r="V7" t="n">
-        <v>1103.181404958389</v>
+        <v>927.1757858896772</v>
       </c>
       <c r="W7" t="n">
-        <v>813.7642349214286</v>
+        <v>637.7586158527165</v>
       </c>
       <c r="X7" t="n">
-        <v>585.7746840234113</v>
+        <v>637.7586158527165</v>
       </c>
       <c r="Y7" t="n">
-        <v>364.9821048798811</v>
+        <v>637.7586158527165</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1218.481149076886</v>
+        <v>755.9562932262879</v>
       </c>
       <c r="C8" t="n">
-        <v>1218.481149076886</v>
+        <v>386.9937762858762</v>
       </c>
       <c r="D8" t="n">
-        <v>860.2154504701355</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="E8" t="n">
-        <v>474.4271978718913</v>
+        <v>70.38679383148718</v>
       </c>
       <c r="F8" t="n">
         <v>63.44129308228371</v>
@@ -4807,13 +4807,13 @@
         <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135507</v>
+        <v>447.8319447135512</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477381</v>
+        <v>804.6133007477385</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
         <v>1673.478115539971</v>
@@ -4846,10 +4846,10 @@
         <v>1906.161223527301</v>
       </c>
       <c r="X8" t="n">
-        <v>1906.161223527301</v>
+        <v>1532.695465266221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1605.080989141008</v>
+        <v>1142.55613329041</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>598.8031573431335</v>
+        <v>688.5974568552863</v>
       </c>
       <c r="L9" t="n">
-        <v>896.1151064594483</v>
+        <v>985.909405971601</v>
       </c>
       <c r="M9" t="n">
-        <v>1262.420995951774</v>
+        <v>1352.215295463926</v>
       </c>
       <c r="N9" t="n">
-        <v>1652.830557277516</v>
+        <v>1742.624856789669</v>
       </c>
       <c r="O9" t="n">
-        <v>1987.759237993047</v>
+        <v>2077.5535375052</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.235965858066</v>
+        <v>2445.212480716556</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.061870084021</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>517.7426251609727</v>
+        <v>1016.553075282091</v>
       </c>
       <c r="C10" t="n">
-        <v>348.8064422330658</v>
+        <v>847.616892354184</v>
       </c>
       <c r="D10" t="n">
-        <v>198.6898028207301</v>
+        <v>697.5002529418482</v>
       </c>
       <c r="E10" t="n">
-        <v>198.6898028207301</v>
+        <v>549.5871593594551</v>
       </c>
       <c r="F10" t="n">
-        <v>51.79985532281972</v>
+        <v>402.6972118615447</v>
       </c>
       <c r="G10" t="n">
-        <v>51.79985532281972</v>
+        <v>305.9935116101411</v>
       </c>
       <c r="H10" t="n">
-        <v>51.79985532281972</v>
+        <v>157.3459760430229</v>
       </c>
       <c r="I10" t="n">
         <v>51.79985532281972</v>
@@ -4998,16 +4998,16 @@
         <v>1646.983670153878</v>
       </c>
       <c r="V10" t="n">
-        <v>1437.590390069721</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="W10" t="n">
-        <v>1148.17322003276</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="X10" t="n">
-        <v>920.1836691347426</v>
+        <v>1418.994119255861</v>
       </c>
       <c r="Y10" t="n">
-        <v>699.3910899912124</v>
+        <v>1198.201540112331</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111722</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1072.713683962606</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1700.311647517213</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2252.2213777565</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5260,10 +5260,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F16" t="n">
-        <v>265.0731740618515</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>97.87707477673149</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5512,7 +5512,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5530,7 +5530,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>513.8536007400712</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D19" t="n">
-        <v>513.8536007400712</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E19" t="n">
-        <v>513.8536007400712</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F19" t="n">
         <v>484.8112968429803</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5734,46 +5734,46 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6004,7 +6004,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>484.8243144841095</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>980.1499206998682</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1577.52840832642</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6214,16 +6214,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,13 +6235,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="32">
@@ -6688,34 +6688,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,25 +6776,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6858,52 +6858,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6931,13 +6931,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075809</v>
@@ -6949,22 +6949,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>454.6048385560544</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1052.829365488567</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C37" t="n">
-        <v>883.8931825606599</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D37" t="n">
-        <v>733.7765431483241</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E37" t="n">
-        <v>585.863449565931</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F37" t="n">
-        <v>438.9735020680206</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>271.7774027829005</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>130.0655716250986</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853364</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.06254548757</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U37" t="n">
-        <v>2227.361618603201</v>
+        <v>1688.385853854709</v>
       </c>
       <c r="V37" t="n">
-        <v>1972.677130397314</v>
+        <v>1433.701365648822</v>
       </c>
       <c r="W37" t="n">
-        <v>1683.259960360354</v>
+        <v>1144.284195611862</v>
       </c>
       <c r="X37" t="n">
-        <v>1455.270409462336</v>
+        <v>916.2946447138443</v>
       </c>
       <c r="Y37" t="n">
-        <v>1234.477830318806</v>
+        <v>695.5020655703141</v>
       </c>
     </row>
     <row r="38">
@@ -7156,34 +7156,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7192,10 +7192,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>931.4710609784063</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>762.5348780504994</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4182386381636</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2106.003314093041</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>2106.003314093041</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1851.318825887154</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1561.901655850193</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1333.912104952176</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1113.119525808646</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7393,13 +7393,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,22 +7408,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7551,19 +7551,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D46" t="n">
-        <v>664.3027814695811</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E46" t="n">
-        <v>516.389687887188</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>21.35444800546691</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>338.9374781659683</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7999,10 +7999,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
-        <v>39.84308739671548</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>26.19461818159724</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.59758182665658</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>87.99713246344973</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,16 +8294,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>277.4922425530995</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>10.05242792961565</v>
       </c>
       <c r="Q6" t="n">
-        <v>81.01167478453539</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>173.7639243740404</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,10 +8549,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>119.3759750973113</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.1843750390658</v>
@@ -10357,7 +10357,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>-1.972915003185951e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>106.0713126946648</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>62.35543909864867</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>136.2749052347519</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>116.6691671648112</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>72.11969353038612</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>144.8013425629417</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>116.6691671648079</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>45.37941682721005</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,10 +25602,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>127.2568112467073</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>913529.420336368</v>
+        <v>913529.4203363681</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>913529.4203363679</v>
+        <v>913529.420336368</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>913529.4203363681</v>
+        <v>913529.4203363679</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>513151.1061651765</v>
+        <v>513151.1061651769</v>
       </c>
       <c r="C2" t="n">
         <v>513151.1061651771</v>
@@ -26322,7 +26322,7 @@
         <v>513151.1061651772</v>
       </c>
       <c r="E2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="F2" t="n">
         <v>504466.6248062536</v>
@@ -26331,7 +26331,7 @@
         <v>504466.6248062537</v>
       </c>
       <c r="H2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="I2" t="n">
         <v>504466.6248062536</v>
@@ -26343,19 +26343,19 @@
         <v>504466.6248062536</v>
       </c>
       <c r="L2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062538</v>
       </c>
       <c r="M2" t="n">
         <v>504466.6248062537</v>
       </c>
       <c r="N2" t="n">
-        <v>504466.6248062537</v>
+        <v>504466.6248062536</v>
       </c>
       <c r="O2" t="n">
-        <v>504466.6248062536</v>
+        <v>504466.6248062535</v>
       </c>
       <c r="P2" t="n">
-        <v>504466.6248062538</v>
+        <v>504466.6248062535</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753987</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898923</v>
+        <v>172764.3597898924</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457512</v>
+        <v>500888.8677457505</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.513344614068046e-10</v>
       </c>
     </row>
     <row r="4">
@@ -26423,13 +26423,13 @@
         <v>129066.754725248</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="G4" t="n">
         <v>6287.480531695052</v>
@@ -26438,19 +26438,19 @@
         <v>6287.480531695052</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="J4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695052</v>
       </c>
       <c r="K4" t="n">
         <v>6287.480531695052</v>
       </c>
       <c r="L4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695024</v>
       </c>
       <c r="M4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
         <v>6287.480531695052</v>
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-675662.7434223728</v>
+        <v>-675662.7434223726</v>
       </c>
       <c r="C6" t="n">
         <v>117838.9022885272</v>
@@ -26530,40 +26530,40 @@
         <v>290603.2620784196</v>
       </c>
       <c r="E6" t="n">
-        <v>-104179.6325494565</v>
+        <v>-103866.9912205347</v>
       </c>
       <c r="F6" t="n">
-        <v>396709.2351962948</v>
+        <v>397021.8765252156</v>
       </c>
       <c r="G6" t="n">
-        <v>396709.2351962946</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="H6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.8765252156</v>
       </c>
       <c r="I6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="J6" t="n">
-        <v>227295.2183702466</v>
+        <v>227607.8596991678</v>
       </c>
       <c r="K6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.8765252156</v>
       </c>
       <c r="L6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.876525216</v>
       </c>
       <c r="M6" t="n">
-        <v>265824.7782920593</v>
+        <v>266137.4196209806</v>
       </c>
       <c r="N6" t="n">
-        <v>396709.2351962946</v>
+        <v>397021.8765252157</v>
       </c>
       <c r="O6" t="n">
-        <v>396709.2351962945</v>
+        <v>397021.8765252158</v>
       </c>
       <c r="P6" t="n">
-        <v>396709.2351962947</v>
+        <v>397021.8765252155</v>
       </c>
     </row>
   </sheetData>
@@ -26740,7 +26740,7 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498445</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
         <v>939.7063906498445</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26816,13 +26816,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26962,16 +26962,16 @@
         <v>749.9809564976108</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522337</v>
+        <v>189.7254341522338</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918297</v>
+        <v>428.269109691829</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644019</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644016</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>351.3848454382872</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>82.09808690062812</v>
       </c>
       <c r="I2" t="n">
         <v>94.24014755885155</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>209.8976922291835</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27539,16 +27539,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.6385546828073</v>
@@ -27596,10 +27596,10 @@
         <v>286.245260737819</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>62.41246373213735</v>
       </c>
       <c r="W4" t="n">
-        <v>271.5581625480808</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>173.8626669424018</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767973</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>49.94808177145897</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,10 +27776,10 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>37.02837421907435</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27791,10 +27791,10 @@
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>55.8183845703428</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>41.24212899083784</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>88.16850661362344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>70.55976360183993</v>
       </c>
       <c r="H10" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.4906595130011</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>44.83829604051223</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30182,7 +30182,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -31278,7 +31278,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
         <v>38.6885148673074</v>
@@ -31290,37 +31290,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
         <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027919</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
         <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712723</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
         <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
         <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.0846608117923</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31363,7 +31363,7 @@
         <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586113</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
@@ -31384,19 +31384,19 @@
         <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
         <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31442,25 +31442,25 @@
         <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425715</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
         <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31469,16 +31469,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662507</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843061</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>465.7451325200311</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>437.8531046913755</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,34 +32074,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>583.1096135868578</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32785,13 +32785,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>379.8551982710416</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>467.1465236515248</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>351.1157147121648</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>444.2274915982894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>400.5469039565762</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>243.9449667520774</v>
+        <v>74.84835158000359</v>
       </c>
       <c r="K2" t="n">
-        <v>487.5747176873218</v>
+        <v>163.429305116157</v>
       </c>
       <c r="L2" t="n">
         <v>240.0230113315071</v>
       </c>
       <c r="M2" t="n">
-        <v>299.0611783410131</v>
+        <v>320.4156263464801</v>
       </c>
       <c r="N2" t="n">
-        <v>308.5607133692782</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="O2" t="n">
         <v>277.8951710269035</v>
@@ -34719,10 +34719,10 @@
         <v>524.1263114938092</v>
       </c>
       <c r="Q2" t="n">
-        <v>143.1233513553569</v>
+        <v>315.5952546185461</v>
       </c>
       <c r="R2" t="n">
-        <v>39.52180169138521</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>288.2160307407405</v>
       </c>
       <c r="O3" t="n">
-        <v>635.0794422580011</v>
+        <v>241.2171229812715</v>
       </c>
       <c r="P3" t="n">
-        <v>186.6672393556563</v>
+        <v>492.5324261689369</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.9375255168697</v>
+        <v>153.9346579803194</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.4495531344171</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
         <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755192</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
         <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495856</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P5" t="n">
         <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961983</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321224</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>188.5469589931441</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L6" t="n">
         <v>300.3151001174896</v>
       </c>
       <c r="M6" t="n">
-        <v>647.4981915352464</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
         <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025566</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131503</v>
+        <v>262.049122742766</v>
       </c>
       <c r="Q6" t="n">
-        <v>199.0413610142976</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
-        <v>25.33729477225502</v>
+        <v>25.33729477225504</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.4456821797836</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
         <v>174.6066995266583</v>
@@ -35102,10 +35102,10 @@
         <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
         <v>264.1024223701673</v>
@@ -35114,7 +35114,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
-        <v>362.3108833671845</v>
+        <v>453.0121960057227</v>
       </c>
       <c r="L9" t="n">
         <v>300.3151001174896</v>
@@ -35269,10 +35269,10 @@
         <v>338.3117987025566</v>
       </c>
       <c r="P9" t="n">
-        <v>251.9966948131503</v>
+        <v>371.3726699104615</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>118.0296862297622</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>334.4034204366978</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>303.8786972770453</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36381,7 +36381,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,13 +36433,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>242.0137592966826</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>328.5921438716506</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,28 +37381,28 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>213.2742757378059</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>302.093457676271</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060485</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>257.9506595121318</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37788,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
